--- a/CalendarioAgo21/proyecto/RubricaProyectoAgo21.xlsx
+++ b/CalendarioAgo21/proyecto/RubricaProyectoAgo21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\CalendarioAgo21\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496A9560-C35A-4C5F-B7EC-B0819E4D5130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D540F172-46A9-4E23-8547-D3E4989A0CBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4041EFBF-A8F0-4CC2-A771-A6DAB0F78564}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B623DB-8C9B-4DC2-BABD-C334BAFE5583}">
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CalendarioAgo21/proyecto/RubricaProyectoAgo21.xlsx
+++ b/CalendarioAgo21/proyecto/RubricaProyectoAgo21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\CalendarioAgo21\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D540F172-46A9-4E23-8547-D3E4989A0CBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AE9AA-FC3D-4E14-80F3-2104679C2DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4041EFBF-A8F0-4CC2-A771-A6DAB0F78564}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B623DB-8C9B-4DC2-BABD-C334BAFE5583}">
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -788,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="12"/>
     </row>
